--- a/RequiredItemsWashout.xlsx
+++ b/RequiredItemsWashout.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="必要項目洗い出しメモ" sheetId="1" r:id="rId4"/>
+    <sheet name="必要項目洗い出しメモ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="81">
   <si>
     <t>必要なもの</t>
   </si>
@@ -64,7 +67,7 @@
     <t>牌をひっくり返す</t>
   </si>
   <si>
-    <t>調査(みためとか)</t>
+    <t>調査(見た目・盤面等)</t>
   </si>
   <si>
     <t>ゲームスタートボタン(SE再生)→メニュー画面へ遷移</t>
@@ -79,164 +82,170 @@
     <t>確定エフェクト</t>
   </si>
   <si>
+    <t>類似ゲーム,ギミック調査</t>
+  </si>
+  <si>
+    <t>ステージセレクト(BGM再生)</t>
+  </si>
+  <si>
+    <t>ゲーム</t>
+  </si>
+  <si>
     <t>実装</t>
   </si>
   <si>
-    <t>ステージセレクト(BGM再生)</t>
-  </si>
-  <si>
-    <t>ゲーム</t>
-  </si>
-  <si>
     <t>難易度(盤面サイズ)</t>
   </si>
   <si>
     <t>リザルト</t>
   </si>
   <si>
+    <t>各ステージ星3がマックスの評価</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>タイルクリック</t>
   </si>
   <si>
-    <t>各ステージ星3がマックスの評価</t>
-  </si>
-  <si>
-    <t>SE</t>
+    <t>Easy(8*8)</t>
+  </si>
+  <si>
+    <t>決定(クリック)</t>
   </si>
   <si>
     <t>タイルドロップ</t>
   </si>
   <si>
-    <t>Easy(8*8)</t>
-  </si>
-  <si>
-    <t>決定(クリック)</t>
+    <t>3～10個</t>
+  </si>
+  <si>
+    <t>移動(選択切替)</t>
   </si>
   <si>
     <t>BGM,SE再生</t>
   </si>
   <si>
-    <t>3～10個</t>
-  </si>
-  <si>
-    <t>移動(選択切替)</t>
+    <t>Normal(9*9)</t>
   </si>
   <si>
     <t>サウンドマネージャー</t>
   </si>
   <si>
-    <t>Normal(10*10)</t>
+    <t>タイルドラック</t>
   </si>
   <si>
     <t>BGM追加</t>
   </si>
   <si>
-    <t>タイルドラック</t>
+    <t>Hard(10*10)</t>
+  </si>
+  <si>
+    <t>ペア成立</t>
   </si>
   <si>
     <t>SE追加</t>
   </si>
   <si>
-    <t>Hard(12*12)</t>
-  </si>
-  <si>
-    <t>ペア成立</t>
+    <t>ペア解除</t>
   </si>
   <si>
     <t>ステージセレクト画面の追加</t>
   </si>
   <si>
-    <t>ペア解除</t>
+    <t>タイトルへ戻るボタン→タイトル画面へ遷移</t>
   </si>
   <si>
     <t>難易度選択</t>
   </si>
   <si>
-    <t>タイトルへ戻るボタン→タイトル画面へ遷移</t>
+    <t>ゲーム(BGM再生)</t>
+  </si>
+  <si>
+    <t>※ギミック追加の可能性あり</t>
   </si>
   <si>
     <t>ステージ選択</t>
   </si>
   <si>
-    <t>ゲーム(BGM再生)</t>
+    <t>盤面</t>
   </si>
   <si>
     <t xml:space="preserve">ステージに通過不可タイルの追加
 </t>
   </si>
   <si>
-    <t>盤面</t>
+    <t>タイル(牌)</t>
   </si>
   <si>
     <t>通過不可タイル作成</t>
   </si>
   <si>
-    <t>タイル(牌)</t>
+    <t>時間</t>
   </si>
   <si>
     <t>盤面ランダム生成に通過不可タイルの追加</t>
   </si>
   <si>
-    <t>時間</t>
+    <t>残りペア数</t>
   </si>
   <si>
     <t>ステージ追加とステージクリア評価(星)の追加</t>
   </si>
   <si>
-    <t>残りペア数</t>
+    <t>メニューボタン→メニュー表示</t>
   </si>
   <si>
     <t>ステージ作成エディタ</t>
   </si>
   <si>
-    <t>メニューボタン→メニュー表示</t>
+    <t>戻る(閉じる)ボタン→メニューを閉じる</t>
   </si>
   <si>
     <t>ステージ読み込み</t>
   </si>
   <si>
-    <t>戻る(閉じる)ボタン→メニューを閉じる</t>
+    <t>リセットボタン(盤面リセット(線・ペア・タイムの初期化))</t>
   </si>
   <si>
     <t>ステージ作成(9～30)</t>
   </si>
   <si>
-    <t>リセットボタン(盤面リセット(線・ペア・タイムの初期化))</t>
+    <t>リスタートボタン(全て再生成)</t>
   </si>
   <si>
     <t>星の管理</t>
   </si>
   <si>
-    <t>リスタートボタン(全て再生成)</t>
-  </si>
-  <si>
-    <t>演出の追加</t>
-  </si>
-  <si>
     <t>ステージセレクトへ戻るボタン→ステージセレクト画面へ遷移</t>
   </si>
   <si>
+    <t>演出追加</t>
+  </si>
+  <si>
+    <t>リザルト(BGM再生)</t>
+  </si>
+  <si>
     <t>牌裏返し</t>
   </si>
   <si>
-    <t>リザルト(BGM再生)</t>
-  </si>
-  <si>
     <t>クリア時間</t>
   </si>
   <si>
+    <t>クリア評価星</t>
+  </si>
+  <si>
     <t>：</t>
   </si>
   <si>
     <t>UI追加</t>
   </si>
   <si>
-    <t>クリア評価星</t>
+    <t>再プレイボタン→ゲーム画面へ遷移</t>
   </si>
   <si>
     <t>リザルト-スコア星表示</t>
-  </si>
-  <si>
-    <t>再プレイボタン→ゲーム画面へ遷移</t>
   </si>
   <si>
     <t>ゲーム内メニューの追加</t>
@@ -254,70 +263,706 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+  </numFmts>
+  <fonts count="23">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -507,26 +1152,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:BH32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="78" width="2.75"/>
+    <col min="1" max="78" width="2.75238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" customHeight="1" spans="2:56">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="3:59">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -563,7 +1211,7 @@
         <v>10</v>
       </c>
       <c r="BE3" s="1">
-        <v>48.0</v>
+        <v>52</v>
       </c>
       <c r="BF3" s="1" t="s">
         <v>11</v>
@@ -572,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="4:60">
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -586,13 +1234,13 @@
         <v>16</v>
       </c>
       <c r="BG4" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="4:60">
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
@@ -606,44 +1254,44 @@
         <v>21</v>
       </c>
       <c r="BG5" s="1">
-        <v>40.0</v>
+        <v>4</v>
       </c>
       <c r="BH5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="3:60">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Y6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="BE6" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="BF6" s="1" t="s">
+      <c r="BG6" s="1">
+        <v>40</v>
+      </c>
+      <c r="BH6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="4:59">
+      <c r="D7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="BE7" s="1">
+        <v>20</v>
+      </c>
+      <c r="BF7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BG6" s="1" t="s">
+      <c r="BG7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7">
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BG7" s="1">
-        <v>4.0</v>
-      </c>
-      <c r="BH7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="5:60">
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
@@ -651,58 +1299,58 @@
         <v>29</v>
       </c>
       <c r="BG8" s="1">
-        <v>16.0</v>
+        <v>4</v>
       </c>
       <c r="BH8" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="6:60">
       <c r="F9" s="1" t="s">
         <v>31</v>
       </c>
       <c r="Y9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BE9" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG9" s="1" t="s">
+      <c r="BG9" s="1">
+        <v>16</v>
+      </c>
+      <c r="BH9" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="7:59">
       <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Y10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="BG10" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BH10" s="1" t="s">
+      <c r="BE10" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG10" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="6:60">
       <c r="F11" s="1" t="s">
         <v>37</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BG11" s="1">
-        <v>2.0</v>
+        <v>8</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="7:60">
       <c r="G12" s="1" t="s">
         <v>34</v>
       </c>
@@ -710,242 +1358,255 @@
         <v>39</v>
       </c>
       <c r="BG12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BH12" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="6:60">
       <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="BE13" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BF13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BG13" s="1" t="s">
+      <c r="BG13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BH13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="7:59">
       <c r="G14" s="1" t="s">
         <v>34</v>
       </c>
       <c r="Y14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="BG14" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="BH14" s="1" t="s">
+      <c r="BE14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG14" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="4:60">
       <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BG15" s="1">
-        <v>5.6</v>
+        <v>2.4</v>
       </c>
       <c r="BH15" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="3:60">
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="BE16" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF16" s="1" t="s">
+      <c r="AL16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="BH16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="4:59">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BG16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BG17" s="1">
+      <c r="BG17" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="4:60">
+      <c r="D18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BG18" s="1">
         <v>2.4</v>
       </c>
-      <c r="BH17" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BG18" s="1">
+      <c r="BH18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="4:60">
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG19" s="1">
         <v>9.6</v>
       </c>
-      <c r="BH18" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE19" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="BF19" s="1" t="s">
+      <c r="BH19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="4:59">
+      <c r="D20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BE20" s="1">
+        <v>44</v>
+      </c>
+      <c r="BF20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BG19" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="D20" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG20" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BH20" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="BG20" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="4:60">
       <c r="D21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BG21" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH21" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="5:60">
       <c r="E22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BG22" s="1">
-        <v>12.0</v>
+        <v>8</v>
       </c>
       <c r="BH22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="5:60">
       <c r="E23" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="BG23" s="1">
-        <v>16.0</v>
+        <v>12</v>
       </c>
       <c r="BH23" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="5:60">
       <c r="E24" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BE24" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG24" s="1">
+        <v>16</v>
+      </c>
+      <c r="BH24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="5:59">
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE25" s="1">
+        <v>12</v>
+      </c>
+      <c r="BF25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BG24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BG25" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="BH25" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26">
+      <c r="BG25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="3:60">
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BG26" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="4:60">
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG27" s="1">
+        <v>6</v>
+      </c>
+      <c r="BH27" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27">
-      <c r="D27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BE27" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BF27" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BG27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="4:59">
       <c r="D28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BH28" s="1" t="s">
+      <c r="BE28" s="1">
+        <v>8</v>
+      </c>
+      <c r="BF28" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="BG28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="4:60">
       <c r="D29" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="BH29" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="4:60">
       <c r="D30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="BE30" s="3">
-        <v>20.5</v>
-      </c>
-      <c r="BG30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="BH30" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="31">
-      <c r="BE31" s="4">
-        <f>SUM(BE3:BE29)</f>
-        <v>164</v>
+    <row r="31" customHeight="1" spans="56:59">
+      <c r="BD31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BE31" s="3">
+        <f>BE32/8</f>
+        <v>21</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="57:59">
+      <c r="BE32" s="3">
+        <f>SUM(BE3:BE30)</f>
+        <v>168</v>
+      </c>
+      <c r="BG32" s="2" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="BE30:BF30"/>
     <mergeCell ref="BE31:BF31"/>
+    <mergeCell ref="BE32:BF32"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/RequiredItemsWashout.xlsx
+++ b/RequiredItemsWashout.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="必要項目洗い出しメモ" sheetId="1" r:id="rId4"/>
+    <sheet name="必要項目洗い出しメモ" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="92">
   <si>
     <t>必要なもの</t>
   </si>
@@ -46,7 +49,7 @@
     <t>牌の種類を増やす</t>
   </si>
   <si>
-    <t>：：</t>
+    <t>：</t>
   </si>
   <si>
     <t>2Dから3Dに移行</t>
@@ -223,8 +226,7 @@
     <t>リセットボタン(盤面リセット(線・ペア・タイムの初期化))</t>
   </si>
   <si>
-    <t xml:space="preserve">ステージに通過不可タイルの追加
-</t>
+    <t>ステージに通過不可タイルの追加</t>
   </si>
   <si>
     <t>リスタートボタン(全て再生成)</t>
@@ -270,9 +272,6 @@
   </si>
   <si>
     <t>牌裏返し</t>
-  </si>
-  <si>
-    <t>：</t>
   </si>
   <si>
     <t>UI追加</t>
@@ -296,83 +295,731 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="桁区切り[0]" xfId="1" builtinId="6"/>
+    <cellStyle name="入力" xfId="2" builtinId="20"/>
+    <cellStyle name="桁区切り" xfId="3" builtinId="3"/>
+    <cellStyle name="通貨[0]" xfId="4" builtinId="7"/>
+    <cellStyle name="40% - アクセント 5" xfId="5" builtinId="47"/>
+    <cellStyle name="通貨" xfId="6" builtinId="4"/>
+    <cellStyle name="パーセント" xfId="7" builtinId="5"/>
+    <cellStyle name="ハイパーリンク" xfId="8" builtinId="8"/>
+    <cellStyle name="アクセント 2" xfId="9" builtinId="33"/>
+    <cellStyle name="訪問済ハイパーリンク" xfId="10" builtinId="9"/>
+    <cellStyle name="20% - アクセント 4" xfId="11" builtinId="42"/>
+    <cellStyle name="メモ" xfId="12" builtinId="10"/>
+    <cellStyle name="良い" xfId="13" builtinId="26"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11"/>
+    <cellStyle name="リンクセル" xfId="15" builtinId="24"/>
+    <cellStyle name="タイトル" xfId="16" builtinId="15"/>
+    <cellStyle name="説明文" xfId="17" builtinId="53"/>
+    <cellStyle name="アクセント 6" xfId="18" builtinId="49"/>
+    <cellStyle name="出力" xfId="19" builtinId="21"/>
+    <cellStyle name="見出し 1" xfId="20" builtinId="16"/>
+    <cellStyle name="見出し 2" xfId="21" builtinId="17"/>
+    <cellStyle name="計算" xfId="22" builtinId="22"/>
+    <cellStyle name="見出し 3" xfId="23" builtinId="18"/>
+    <cellStyle name="見出し 4" xfId="24" builtinId="19"/>
+    <cellStyle name="60% - アクセント 5" xfId="25" builtinId="48"/>
+    <cellStyle name="チェックセル" xfId="26" builtinId="23"/>
+    <cellStyle name="40% - アクセント 1" xfId="27" builtinId="31"/>
+    <cellStyle name="集計" xfId="28" builtinId="25"/>
+    <cellStyle name="悪い" xfId="29" builtinId="27"/>
+    <cellStyle name="どちらでもない" xfId="30" builtinId="28"/>
+    <cellStyle name="アクセント 1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - アクセント 1" xfId="32" builtinId="30"/>
+    <cellStyle name="20% - アクセント 5" xfId="33" builtinId="46"/>
+    <cellStyle name="60% - アクセント 1" xfId="34" builtinId="32"/>
+    <cellStyle name="20% - アクセント 2" xfId="35" builtinId="34"/>
+    <cellStyle name="40% - アクセント 2" xfId="36" builtinId="35"/>
+    <cellStyle name="20% - アクセント 6" xfId="37" builtinId="50"/>
+    <cellStyle name="60% - アクセント 2" xfId="38" builtinId="36"/>
+    <cellStyle name="アクセント 3" xfId="39" builtinId="37"/>
+    <cellStyle name="20% - アクセント 3" xfId="40" builtinId="38"/>
+    <cellStyle name="40% - アクセント 3" xfId="41" builtinId="39"/>
+    <cellStyle name="60% - アクセント 3" xfId="42" builtinId="40"/>
+    <cellStyle name="アクセント 4" xfId="43" builtinId="41"/>
+    <cellStyle name="40% - アクセント 4" xfId="44" builtinId="43"/>
+    <cellStyle name="60% - アクセント 4" xfId="45" builtinId="44"/>
+    <cellStyle name="アクセント 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - アクセント 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - アクセント 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -562,26 +1209,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="B2:BH38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2.0" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B4" sqref="B4" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6285714285714" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="78" width="2.75"/>
+    <col min="1" max="78" width="2.75238095238095" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" customHeight="1" spans="2:56">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +1251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customHeight="1" spans="3:59">
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
@@ -618,16 +1268,16 @@
         <v>10</v>
       </c>
       <c r="BE3" s="1">
-        <v>52.0</v>
-      </c>
-      <c r="BF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG3" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" customHeight="1" spans="4:60">
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
@@ -641,13 +1291,13 @@
         <v>16</v>
       </c>
       <c r="BG4" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" customHeight="1" spans="4:60">
       <c r="D5" s="1" t="s">
         <v>18</v>
       </c>
@@ -661,13 +1311,13 @@
         <v>21</v>
       </c>
       <c r="BG5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BH5" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" customHeight="1" spans="3:60">
       <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
@@ -681,13 +1331,13 @@
         <v>26</v>
       </c>
       <c r="BG6" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="BH6" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customHeight="1" spans="4:59">
       <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
@@ -697,18 +1347,18 @@
       <c r="AP7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BE7" s="2">
+      <c r="BE7" s="4">
         <f>BG8+BG9+BG10+BG11+BG12</f>
         <v>28</v>
       </c>
-      <c r="BF7" s="3" t="s">
+      <c r="BF7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BG7" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" customHeight="1" spans="5:60">
       <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
@@ -719,13 +1369,13 @@
         <v>34</v>
       </c>
       <c r="BG8" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" customHeight="1" spans="6:60">
       <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
@@ -733,13 +1383,13 @@
         <v>37</v>
       </c>
       <c r="BG9" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH9" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customHeight="1" spans="7:60">
       <c r="G10" s="1" t="s">
         <v>38</v>
       </c>
@@ -747,13 +1397,13 @@
         <v>39</v>
       </c>
       <c r="BG10" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH10" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" customHeight="1" spans="6:60">
       <c r="F11" s="1" t="s">
         <v>40</v>
       </c>
@@ -761,13 +1411,13 @@
         <v>41</v>
       </c>
       <c r="BG11" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH11" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customHeight="1" spans="7:60">
       <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
@@ -775,13 +1425,13 @@
         <v>43</v>
       </c>
       <c r="BG12" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BH12" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customHeight="1" spans="6:59">
       <c r="F13" s="1" t="s">
         <v>45</v>
       </c>
@@ -789,16 +1439,16 @@
         <v>46</v>
       </c>
       <c r="BE13" s="1">
-        <v>20.0</v>
-      </c>
-      <c r="BF13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG13" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customHeight="1" spans="7:60">
       <c r="G14" s="1" t="s">
         <v>38</v>
       </c>
@@ -806,49 +1456,49 @@
         <v>47</v>
       </c>
       <c r="BG14" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="BH14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customHeight="1" spans="4:60">
       <c r="D15" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BG15" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="BH15" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customHeight="1" spans="3:59">
       <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
       <c r="BE16" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG16" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customHeight="1" spans="4:60">
       <c r="D17" s="1" t="s">
         <v>52</v>
       </c>
       <c r="BG17" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH17" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customHeight="1" spans="4:60">
       <c r="D18" s="1" t="s">
         <v>54</v>
       </c>
@@ -856,13 +1506,13 @@
         <v>55</v>
       </c>
       <c r="BG18" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BH18" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customHeight="1" spans="4:60">
       <c r="D19" s="1" t="s">
         <v>57</v>
       </c>
@@ -870,13 +1520,13 @@
         <v>58</v>
       </c>
       <c r="BG19" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="BH19" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" customHeight="1" spans="4:59">
       <c r="D20" s="1" t="s">
         <v>60</v>
       </c>
@@ -884,16 +1534,16 @@
         <v>61</v>
       </c>
       <c r="BE20" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BF20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF20" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG20" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" customHeight="1" spans="4:60">
       <c r="D21" s="1" t="s">
         <v>63</v>
       </c>
@@ -907,7 +1557,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" customHeight="1" spans="5:60">
       <c r="E22" s="1" t="s">
         <v>66</v>
       </c>
@@ -921,21 +1571,21 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" customHeight="1" spans="5:59">
       <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="BE23" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG23" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" customHeight="1" spans="5:60">
       <c r="E24" s="1" t="s">
         <v>71</v>
       </c>
@@ -946,7 +1596,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" customHeight="1" spans="5:60">
       <c r="E25" s="1" t="s">
         <v>73</v>
       </c>
@@ -957,131 +1607,133 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" customHeight="1" spans="3:59">
       <c r="C26" s="1" t="s">
         <v>75</v>
       </c>
       <c r="BE26" s="1">
-        <v>44.0</v>
-      </c>
-      <c r="BF26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF26" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG26" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" customHeight="1" spans="4:60">
       <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
       <c r="BG27" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH27" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" customHeight="1" spans="4:60">
       <c r="D28" s="1" t="s">
         <v>79</v>
       </c>
       <c r="BG28" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="BH28" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" customHeight="1" spans="4:60">
       <c r="D29" s="1" t="s">
         <v>81</v>
       </c>
       <c r="BG29" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="BH29" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" customHeight="1" spans="4:60">
       <c r="D30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="BG30" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="BH30" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" customHeight="1" spans="57:59">
       <c r="BE31" s="1">
-        <v>12.0</v>
-      </c>
-      <c r="BF31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BF31" s="3" t="s">
         <v>11</v>
       </c>
       <c r="BG31" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" customHeight="1" spans="59:60">
       <c r="BG32" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH32" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" customHeight="1" spans="59:60">
       <c r="BG33" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="BH33" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" customHeight="1" spans="57:59">
       <c r="BE34" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="BF34" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="BF34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="BG34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="BG34" s="1" t="s">
+    </row>
+    <row r="35" customHeight="1" spans="60:60">
+      <c r="BH35" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="35">
-      <c r="BH35" s="1" t="s">
+    <row r="36" customHeight="1" spans="60:60">
+      <c r="BH36" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="36">
-      <c r="BH36" s="1" t="s">
+    <row r="37" customHeight="1" spans="56:59">
+      <c r="BD37" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="BD37" s="5" t="s">
+      <c r="BE37" s="7">
+        <f>BE38/8</f>
+        <v>24.5</v>
+      </c>
+      <c r="BF37" s="8"/>
+      <c r="BG37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="BE37" s="6">
-        <f>BE38 / 8</f>
-        <v>24.5</v>
-      </c>
-      <c r="BG37" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38">
+    </row>
+    <row r="38" customHeight="1" spans="57:59">
       <c r="BE38" s="7">
         <f>SUM(BE3:BE36)</f>
         <v>196</v>
       </c>
-      <c r="BG38" s="5" t="s">
-        <v>92</v>
+      <c r="BF38" s="8"/>
+      <c r="BG38" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1089,6 +1741,7 @@
     <mergeCell ref="BE37:BF37"/>
     <mergeCell ref="BE38:BF38"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>